--- a/Topic 2/Лекция 2 Сезонность.xlsx
+++ b/Topic 2/Лекция 2 Сезонность.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myfri\Downloads\Д_Excel.Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165A9A1C-8350-4FB7-90A5-B16EFD4932B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259A464F-114C-4924-A6B9-A436D782502F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="144" windowWidth="22764" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="Params" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -2181,15 +2181,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>197427</xdr:colOff>
+      <xdr:colOff>218209</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>155863</xdr:rowOff>
+      <xdr:rowOff>148936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>453736</xdr:colOff>
+      <xdr:colOff>474518</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>17317</xdr:rowOff>
+      <xdr:rowOff>10390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12314,8 +12314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49F5C82-BD48-48FC-B4A2-DE0E845B065A}">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13407,7 +13407,7 @@
       </c>
       <c r="B2" t="str" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">LEFT(CELL("имяфайла"),FIND("\[",CELL("имяфайла"))) &amp; "Data"</f>
-        <v>C:\Users\myfri\Downloads\Д_Excel.Edited\Data</v>
+        <v>C:\Users\myfri\Downloads\Data</v>
       </c>
     </row>
   </sheetData>
